--- a/sources/case/addMember.xlsx
+++ b/sources/case/addMember.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Params" sheetId="1" r:id="rId2"/>
     <sheet name="Expectations" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>join_date</t>
   </si>
@@ -180,31 +180,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>2017-10-20T15:18:53+08:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程测试03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hr/v1/formrecords?form=employee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13411110003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>addMember</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017-10-20T15:18:53+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程测试03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LC003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hr/v1/formrecords?form=employee</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13411110003</t>
+    <t>addMem_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +573,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,7 +608,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -613,10 +617,10 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -630,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -674,21 +678,44 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/sources/case/addMember.xlsx
+++ b/sources/case/addMember.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="3" r:id="rId1"/>
@@ -21,20 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>join_date</t>
   </si>
   <si>
-    <t>2017-10-19T15:18:53+08:00</t>
-  </si>
-  <si>
     <t>organization_ID</t>
   </si>
   <si>
-    <t>d495a1cc-0f75-11e7-9aa4-00163e007053</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -44,48 +38,21 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>13311110002</t>
-  </si>
-  <si>
     <t>employee_no</t>
   </si>
   <si>
-    <t>SP001</t>
-  </si>
-  <si>
     <t>position_ID</t>
   </si>
   <si>
-    <t>f681f4c7-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>tenant_id</t>
   </si>
   <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>deleted_at</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
     <t>is_deleted</t>
   </si>
   <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>sync_user</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
-    <t>extra</t>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
@@ -98,22 +65,10 @@
     <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
   </si>
   <si>
-    <t>2017-10-18T15:19:20+08:00</t>
-  </si>
-  <si>
-    <t>0001-01-01T00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>a8e022ec-b3d4-11e7-a2ba-5254001aba5d</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>a9c94321-b3d4-11e7-8a61-5254001aba5d</t>
-  </si>
-  <si>
-    <t>{"user_image":"","employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053","service_order_id":"","timeline_id":""}</t>
   </si>
   <si>
     <t>测试部</t>
@@ -209,6 +164,43 @@
   </si>
   <si>
     <t>addMem_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_2.uuid}</t>
+  </si>
+  <si>
+    <t>addMem_3</t>
+  </si>
+  <si>
+    <t>addMem_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addMem_2</t>
+  </si>
+  <si>
+    <t>addMem_4</t>
+  </si>
+  <si>
+    <t>addMem_5</t>
+  </si>
+  <si>
+    <t>addMem_6</t>
+  </si>
+  <si>
+    <t>测试部</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -572,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,42 +580,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -634,89 +626,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -728,149 +812,247 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="101" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/addMember.xlsx
+++ b/sources/case/addMember.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="3" r:id="rId1"/>
@@ -62,13 +62,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>a9c94321-b3d4-11e7-8a61-5254001aba5d</t>
   </si>
   <si>
     <t>测试部</t>
@@ -202,6 +196,12 @@
   <si>
     <t>测试部</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.user_id}</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +278,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -580,42 +586,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +635,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -644,7 +650,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -667,140 +673,140 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -814,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -823,7 +829,7 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
@@ -833,7 +839,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -865,194 +871,194 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/addMember.xlsx
+++ b/sources/case/addMember.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="3" r:id="rId1"/>
@@ -145,63 +145,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>13411110003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addMember</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addMem_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_2.uuid}</t>
+  </si>
+  <si>
+    <t>addMem_3</t>
+  </si>
+  <si>
+    <t>addMem_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addMem_2</t>
+  </si>
+  <si>
+    <t>addMem_4</t>
+  </si>
+  <si>
+    <t>addMem_5</t>
+  </si>
+  <si>
+    <t>addMem_6</t>
+  </si>
+  <si>
+    <t>测试部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.user_id}</t>
+  </si>
+  <si>
     <t>/hr/v1/formrecords?form=employee</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13411110003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addMember</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addMem_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_2.uuid}</t>
-  </si>
-  <si>
-    <t>addMem_3</t>
-  </si>
-  <si>
-    <t>addMem_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addMem_2</t>
-  </si>
-  <si>
-    <t>addMem_4</t>
-  </si>
-  <si>
-    <t>addMem_5</t>
-  </si>
-  <si>
-    <t>addMem_6</t>
-  </si>
-  <si>
-    <t>测试部</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
-  </si>
-  <si>
-    <t>$csv{data.Tenant.microfastup.user_id}</t>
   </si>
 </sst>
 </file>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,7 +580,7 @@
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -606,7 +606,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -618,7 +618,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -679,134 +679,134 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -874,19 +874,19 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -903,22 +903,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -927,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -935,22 +935,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -959,7 +959,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -967,22 +967,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -999,22 +999,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
@@ -1023,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -1031,22 +1031,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>

--- a/sources/case/addMember.xlsx
+++ b/sources/case/addMember.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Params" sheetId="1" r:id="rId2"/>
     <sheet name="Expectations" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>join_date</t>
   </si>
@@ -50,9 +50,6 @@
     <t>is_deleted</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
@@ -63,12 +60,6 @@
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>测试部</t>
-  </si>
-  <si>
-    <t>人事专员</t>
   </si>
   <si>
     <t>onboarding</t>
@@ -190,17 +181,23 @@
     <t>addMem_6</t>
   </si>
   <si>
-    <t>测试部</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>$csv{data.Tenant.microfastup.tenant_id}</t>
   </si>
   <si>
-    <t>$csv{data.Tenant.microfastup.user_id}</t>
-  </si>
-  <si>
     <t>/hr/v1/formrecords?form=employee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+  </si>
+  <si>
+    <t>${position_1.name}</t>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +568,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,42 +583,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -635,12 +632,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
@@ -650,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -659,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -673,140 +670,140 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -829,17 +826,17 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -851,214 +848,193 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/addMember.xlsx
+++ b/sources/case/addMember.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Params" sheetId="1" r:id="rId2"/>
     <sheet name="Expectations" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>join_date</t>
   </si>
@@ -148,20 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_2.uuid}</t>
-  </si>
-  <si>
     <t>addMem_3</t>
   </si>
   <si>
@@ -188,17 +174,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_1.name}</t>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-  </si>
-  <si>
-    <t>${position_1.name}</t>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.position.position_1.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_1.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_2.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_1.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_1.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_2.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_2.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_2.name}</t>
   </si>
 </sst>
 </file>
@@ -568,7 +569,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -632,17 +633,17 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -656,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -676,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -688,7 +689,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -699,7 +700,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -711,18 +712,18 @@
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -734,18 +735,18 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -757,18 +758,18 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -780,18 +781,18 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -803,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -818,19 +819,19 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -868,25 +869,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -894,28 +895,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -923,28 +924,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -952,28 +953,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -981,28 +982,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -1010,28 +1011,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>

--- a/sources/case/addMember.xlsx
+++ b/sources/case/addMember.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>join_date</t>
   </si>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017-10-20T15:18:53+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>流程测试03</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -200,6 +196,25 @@
   </si>
   <si>
     <t>$csv{data.position.position_2.name}</t>
+  </si>
+  <si>
+    <t>{Date.tomorrow}T15:18:53+08:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.tomorrow}T15:18:53+08:01</t>
+  </si>
+  <si>
+    <t>{Date.tomorrow}T15:18:53+08:02</t>
+  </si>
+  <si>
+    <t>{Date.tomorrow}T15:18:53+08:03</t>
+  </si>
+  <si>
+    <t>{Date.tomorrow}T15:18:53+08:04</t>
+  </si>
+  <si>
+    <t>{Date.tomorrow}T15:18:53+08:05</t>
   </si>
 </sst>
 </file>
@@ -568,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +619,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -613,10 +628,10 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -632,14 +647,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
@@ -657,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -674,137 +689,137 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -869,25 +884,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -895,28 +910,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -924,28 +939,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -953,28 +968,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -982,28 +997,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -1011,28 +1026,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
